--- a/tests/resources/index_offset_aggregation.xlsx
+++ b/tests/resources/index_offset_aggregation.xlsx
@@ -595,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="N1:Z7"/>
+  <dimension ref="O1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,101 +604,33 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="N1">
-        <f>INDEX(OFFSET(Data!A1, 0, 0, 3, 3), 2, 2)</f>
-        <v/>
-      </c>
       <c r="O1">
         <f>SUM(INDEX(Data!A1:E6, 0, 2))</f>
         <v/>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Data!B2</t>
-        </is>
-      </c>
-      <c r="Q1" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Test Value</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="N2">
-        <f>OFFSET(INDEX(Data!A1:E6, 2, 1), 1, 1)</f>
-        <v/>
-      </c>
       <c r="O2">
         <f>AVERAGE(OFFSET(Data!B1, 1, 0, 5, 1))</f>
         <v/>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Data!C3</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Bob</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="N3">
-        <f>INDIRECT("Data!A" &amp; 2)</f>
-        <v/>
-      </c>
       <c r="O3">
         <f>COUNT(INDIRECT("Data!B:B"))</f>
         <v/>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Data!A1:C3</t>
-        </is>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
-      <c r="N4">
-        <f>INDIRECT("Data!" &amp; CHAR(66) &amp; "2")</f>
-        <v/>
-      </c>
       <c r="O4">
         <f>MAX(INDEX(Data!A1:E6, 0, 4))</f>
         <v/>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>InvalidSheet!A1</t>
-        </is>
-      </c>
-      <c r="Q4" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Data!A:A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Data!1:1</t>
+    </row>
+    <row r="20">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>4O: Funciones con Agregación</t>
         </is>
       </c>
     </row>
